--- a/HardwareSoftwareMonitor(Framework)/save/infos.xlsx
+++ b/HardwareSoftwareMonitor(Framework)/save/infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\HardwareSoftwareMonitor(Framework)\HardwareSoftwareMonitor(Framework)\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5B7EE4D-1F7F-4A70-8305-739FC1AB637F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1E224D3-14EC-496C-98E2-4F8B5973F88D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1590" windowWidth="21600" windowHeight="11835" xr2:uid="{3A16AE5B-EE32-4A7C-A1DE-B93CC524D500}"/>
+    <workbookView xWindow="3480" yWindow="1590" windowWidth="21600" windowHeight="11835" xr2:uid="{3E9BF05D-330A-4462-950E-2D0DF38A5561}"/>
   </bookViews>
   <sheets>
     <sheet name="Installed Applications" sheetId="2" r:id="rId1"/>
@@ -448,7 +448,7 @@
     <t>Microsoft Edge</t>
   </si>
   <si>
-    <t>89.0.774.77</t>
+    <t>90.0.818.42</t>
   </si>
   <si>
     <t>Microsoft Edge Update</t>
@@ -967,13 +967,13 @@
     <t>232.3 GB</t>
   </si>
   <si>
-    <t>176.8 GB</t>
+    <t>177.0 GB</t>
   </si>
   <si>
     <t>D:\</t>
   </si>
   <si>
-    <t>85.8 GB</t>
+    <t>88.1 GB</t>
   </si>
   <si>
     <t>E:\</t>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C7C8A5-7A2C-4A87-ACD2-B4A36FB1991D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE992420-49C3-4480-8C51-1E3158A69549}">
   <dimension ref="A1:B173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2716,12 +2716,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90165F31-5A09-4DAA-A1DF-D805004EAA75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23BE30D-202E-4C02-A472-03BBAC888478}">
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
